--- a/shelflife/sku.xlsx
+++ b/shelflife/sku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITÓRIOS\python\shelflife\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dato\Documents\REPOSITÓRIO\PYTHON\shelflife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3B622C-7ACB-4B9A-9622-85BEEFEA7FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63D73CA-EA86-4248-BFD7-863A6F7C1C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_url_15_ambiente_141_user_9" sheetId="1" r:id="rId1"/>
@@ -609,9 +609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -649,7 +649,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -755,7 +755,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -897,7 +897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -905,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,6 +1011,46 @@
         <v>5286</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>5378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
